--- a/biology/Microbiologie/Pierre_Goret/Pierre_Goret.xlsx
+++ b/biology/Microbiologie/Pierre_Goret/Pierre_Goret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre, Hyacinthe, Henri Goret, né le 27 août 1907 à Rosières-en-Santerre (Somme) et mort le 10 juillet 1994, est un vétérinaire français qui fut professeur de microbiologie et de maladies contagieuses à l’École nationale vétérinaire de Lyon et à celle d’Alfort[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre, Hyacinthe, Henri Goret, né le 27 août 1907 à Rosières-en-Santerre (Somme) et mort le 10 juillet 1994, est un vétérinaire français qui fut professeur de microbiologie et de maladies contagieuses à l’École nationale vétérinaire de Lyon et à celle d’Alfort.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre, Hyacinthe, Henri Goret est né le 27 août 1907 à Rosières-en-Santerre (Somme) de Henriette, Marie-Rose Bouffette et de Lucien-Joseph Goret, chef de bataillon dans la légion étrangère.
 Après un baccalauréat classique (1924, Lille), il suivit le certificat d’études physiques, chimiques et naturelles à Amiens et fut reçu au concours d’entrée aux Écoles vétérinaires en 1926. Il fut diplômé de l’École vétérinaire d’Alfort en 1930. À sa sortie de l’École, il fut affecté au Laboratoire militaire de recherches vétérinaires sous les ordres du vétérinaire commandant Urbain.
 En 1931, il était nommé chef de travaux dans la chaire de pathologie générale, maladies contagieuses et police sanitaire de l’École d’Alfort et devenait le collaborateur du professeur Panisset.
 Jusqu’en 1943, il occupa ce poste, avec une interruption en 1939-1940 en raison d’une affectation au Laboratoire de sérologie de l’Armée. À cette date, il quitta provisoirement l’École d’Alfort pour prendre la direction d’un laboratoire privé qu’il garda jusqu’en 1946.
-En 1945, il réussissait brillamment au concours d’agrégation de pathologie infectieuse et, en 1946, il réintégrait l’enseignement vétérinaire en succédant au professeur Basset à l’École vétérinaire de Lyon. Il y resta jusqu’en 1954 et bénéficia pendant cette période de la présence de Louis Joubert, son collaborateur bien-aimé[4].
-En 1954, à la suite du départ du professeur Verge pour la direction du Laboratoire central de recherches vétérinaires d’Alfort, il revenait à l’École d’Alfort qu’il ne devait plus quitter jusqu’à sa retraite en 1976 et où il accueillait comme collaborateurs successivement Charles Pilet, Bernard Toma et Jean-Jacques Bénet[4].
+En 1945, il réussissait brillamment au concours d’agrégation de pathologie infectieuse et, en 1946, il réintégrait l’enseignement vétérinaire en succédant au professeur Basset à l’École vétérinaire de Lyon. Il y resta jusqu’en 1954 et bénéficia pendant cette période de la présence de Louis Joubert, son collaborateur bien-aimé.
+En 1954, à la suite du départ du professeur Verge pour la direction du Laboratoire central de recherches vétérinaires d’Alfort, il revenait à l’École d’Alfort qu’il ne devait plus quitter jusqu’à sa retraite en 1976 et où il accueillait comme collaborateurs successivement Charles Pilet, Bernard Toma et Jean-Jacques Bénet.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La production scientifique de Pierre Goret s’est traduite par plus de 500 notes et articles dont la grande majorité ont été publiés dans des revues de langue française, notamment le Bulletin de l’Académie vétérinaire.
 De nombreux sujets ont été abordés par Pierre Goret au cours de sa carrière, mais tout particulièrement la maladie de Carré et la peste porcine classique.
@@ -589,9 +605,11 @@
           <t>L’enseignant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Goret a été un enseignant remarquable, doué d’un talent d’orateur incomparable, sachant manier l’humour à bon escient et ayant le souci de choisir les informations pouvant être utiles pour les futurs professionnels auxquels il s’adressait[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Goret a été un enseignant remarquable, doué d’un talent d’orateur incomparable, sachant manier l’humour à bon escient et ayant le souci de choisir les informations pouvant être utiles pour les futurs professionnels auxquels il s’adressait.
 </t>
         </is>
       </c>
